--- a/biology/Zoologie/Anthuridae/Anthuridae.xlsx
+++ b/biology/Zoologie/Anthuridae/Anthuridae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Anthuridae sont une famille d'isopodes marins.
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,9 +551,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (4 avril 2024)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (4 avril 2024) :
 Amakusanthura Nunomura, 1977
 Anthura Leach, 1814
 Apanthura Stebbing, 1900
@@ -604,10 +620,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Le nom valide complet (avec auteur) de ce taxon est Anthuridae Leach, 1814[1].
-Anthuridae a pour synonyme[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le nom valide complet (avec auteur) de ce taxon est Anthuridae Leach, 1814.
+Anthuridae a pour synonyme :
 Anthurinae Leach, 1814</t>
         </is>
       </c>
@@ -636,9 +654,11 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>(en) W.E. Leach, « Crustaceology », in D. Brewster, (ed.), The Edinburgh Encyclopaedia. Balfour, Edinburgh, (1813-1815), vol. 7, n. 1, p. 383–384 [1813], vol. 7, n. 2, p. 383–384, p. 765–766 [1814], vol. 9, n. 1 pl. CCXXI [1815] (lire en ligne)</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>(en) W.E. Leach, « Crustaceology », in D. Brewster, (ed.), The Edinburgh Encyclopaedia. Balfour, Edinburgh, (1813-1815), vol. 7, n. 1, p. 383–384 , vol. 7, n. 2, p. 383–384, p. 765–766 , vol. 9, n. 1 pl. CCXXI  (lire en ligne)</t>
         </is>
       </c>
     </row>
